--- a/BalanceSheet/EVRG_bal.xlsx
+++ b/BalanceSheet/EVRG_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>7700000.0</v>
+        <v>505000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>8400000.0</v>
+        <v>512000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-21300000.0</v>
+        <v>520000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-17100000.0</v>
+        <v>499000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-27100000.0</v>
+        <v>482000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>454400000.0</v>
@@ -1912,19 +1912,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>221800000.0</v>
+        <v>654000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>36100000.0</v>
+        <v>359000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>29800000.0</v>
+        <v>333000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-153400000.0</v>
+        <v>298000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>128400000.0</v>
+        <v>529000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>311300000.0</v>
@@ -3102,19 +3102,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-9600000.0</v>
+        <v>1852000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>66800000.0</v>
+        <v>1871000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>61600000.0</v>
+        <v>1790000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>8100000.0</v>
+        <v>2170000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>10100000.0</v>
+        <v>2120000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>2099900000.0</v>
